--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H2">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N2">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O2">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P2">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q2">
-        <v>0.02798295332222222</v>
+        <v>0.03744343148866667</v>
       </c>
       <c r="R2">
-        <v>0.2518465799</v>
+        <v>0.336990883398</v>
       </c>
       <c r="S2">
-        <v>0.001217790809370792</v>
+        <v>0.001621287068020837</v>
       </c>
       <c r="T2">
-        <v>0.001217790809370792</v>
+        <v>0.001621287068020837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H3">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.282051</v>
       </c>
       <c r="O3">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P3">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q3">
-        <v>0.08115441281111112</v>
+        <v>0.1106620925798889</v>
       </c>
       <c r="R3">
-        <v>0.7303897153</v>
+        <v>0.995958833219</v>
       </c>
       <c r="S3">
-        <v>0.003531760816066933</v>
+        <v>0.004791628664541699</v>
       </c>
       <c r="T3">
-        <v>0.003531760816066932</v>
+        <v>0.004791628664541699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H4">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>26.357045</v>
       </c>
       <c r="O4">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P4">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q4">
-        <v>0.2937346237222223</v>
+        <v>0.4005362986227778</v>
       </c>
       <c r="R4">
-        <v>2.6436116135</v>
+        <v>3.604826687605</v>
       </c>
       <c r="S4">
-        <v>0.0127830440569989</v>
+        <v>0.01734307715430933</v>
       </c>
       <c r="T4">
-        <v>0.01278304405699889</v>
+        <v>0.01734307715430933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.13889</v>
       </c>
       <c r="I5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N5">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O5">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P5">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q5">
-        <v>0.3177418315966666</v>
+        <v>0.31179543382</v>
       </c>
       <c r="R5">
-        <v>2.85967648437</v>
+        <v>2.80615890438</v>
       </c>
       <c r="S5">
-        <v>0.01382781430592524</v>
+        <v>0.01350062973991365</v>
       </c>
       <c r="T5">
-        <v>0.01382781430592524</v>
+        <v>0.01350062973991366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.13889</v>
       </c>
       <c r="I6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.282051</v>
       </c>
       <c r="O6">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P6">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q6">
         <v>0.9214950070433333</v>
@@ -818,10 +818,10 @@
         <v>8.293455063390001</v>
       </c>
       <c r="S6">
-        <v>0.04010256306889799</v>
+        <v>0.03990040118564803</v>
       </c>
       <c r="T6">
-        <v>0.04010256306889799</v>
+        <v>0.03990040118564803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.13889</v>
       </c>
       <c r="I7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>26.357045</v>
       </c>
       <c r="O7">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P7">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q7">
         <v>3.335308331116666</v>
@@ -880,10 +880,10 @@
         <v>30.01777498005</v>
       </c>
       <c r="S7">
-        <v>0.1451493623736338</v>
+        <v>0.1444176468371587</v>
       </c>
       <c r="T7">
-        <v>0.1451493623736338</v>
+        <v>0.1444176468371587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8369776666666665</v>
+        <v>0.8213140000000001</v>
       </c>
       <c r="N8">
-        <v>2.510933</v>
+        <v>2.463942</v>
       </c>
       <c r="O8">
-        <v>0.0694586718035551</v>
+        <v>0.06824749762056036</v>
       </c>
       <c r="P8">
-        <v>0.06945867180355511</v>
+        <v>0.06824749762056037</v>
       </c>
       <c r="Q8">
-        <v>1.250328294104333</v>
+        <v>1.226928953354</v>
       </c>
       <c r="R8">
-        <v>11.252954646939</v>
+        <v>11.042360580186</v>
       </c>
       <c r="S8">
-        <v>0.05441306668825906</v>
+        <v>0.05312558081262586</v>
       </c>
       <c r="T8">
-        <v>0.05441306668825908</v>
+        <v>0.05312558081262587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.282051</v>
       </c>
       <c r="O9">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="P9">
-        <v>0.2014397000898671</v>
+        <v>0.2017018900182306</v>
       </c>
       <c r="Q9">
         <v>3.626123996303667</v>
@@ -1004,10 +1004,10 @@
         <v>32.635115966733</v>
       </c>
       <c r="S9">
-        <v>0.1578053762049022</v>
+        <v>0.1570098601680409</v>
       </c>
       <c r="T9">
-        <v>0.1578053762049022</v>
+        <v>0.1570098601680409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>26.357045</v>
       </c>
       <c r="O10">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="P10">
-        <v>0.7291016281065776</v>
+        <v>0.7300506123612091</v>
       </c>
       <c r="Q10">
         <v>13.12458720024834</v>
@@ -1066,10 +1066,10 @@
         <v>118.121284802235</v>
       </c>
       <c r="S10">
-        <v>0.571169221675945</v>
+        <v>0.5682898883697409</v>
       </c>
       <c r="T10">
-        <v>0.571169221675945</v>
+        <v>0.568289888369741</v>
       </c>
     </row>
   </sheetData>
